--- a/ANALISIS CAMPOS INDIVIDUALES/ANALISIS_MALICIOSOS.xlsx
+++ b/ANALISIS CAMPOS INDIVIDUALES/ANALISIS_MALICIOSOS.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U355032\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Python 3.9\TFM\IBM\ANALISIS MALICIOSOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA994C0C-FC20-454F-98F0-7511964B3FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73124DC-4E9B-4186-86FE-E73558981E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{17133B9F-98E4-4235-8D58-69C1666A37E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{17133B9F-98E4-4235-8D58-69C1666A37E2}"/>
   </bookViews>
   <sheets>
-    <sheet name="AÑO CREACIÓN" sheetId="2" r:id="rId1"/>
-    <sheet name="AÑO PUBLICACIÓN" sheetId="3" r:id="rId2"/>
-    <sheet name="AÑO MODIFICACIÓN" sheetId="4" r:id="rId3"/>
-    <sheet name="REPORTE CREADO POR IRIS, NOMBRE" sheetId="5" r:id="rId4"/>
-    <sheet name="OBJETOS DE REFERENCIA" sheetId="6" r:id="rId5"/>
+    <sheet name="created" sheetId="2" r:id="rId1"/>
+    <sheet name="published" sheetId="3" r:id="rId2"/>
+    <sheet name="modified" sheetId="4" r:id="rId3"/>
+    <sheet name="iris_tags" sheetId="5" r:id="rId4"/>
+    <sheet name="object_refs" sheetId="6" r:id="rId5"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1338,7 +1338,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO CREACIÓN'!$B$12:$B$14</c:f>
+              <c:f>created!$B$12:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1356,7 +1356,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO CREACIÓN'!$D$12:$D$14</c:f>
+              <c:f>created!$D$12:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1413,7 +1413,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$B$12:$B$14</c15:sqref>
+                          <c15:sqref>created!$B$12:$B$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1437,7 +1437,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$C$12:$C$14</c15:sqref>
+                          <c15:sqref>created!$C$12:$C$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1899,7 +1899,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'REPORTE CREADO POR IRIS, NOMBRE'!$B$12:$B$13</c:f>
+              <c:f>iris_tags!$B$12:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1913,7 +1913,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'REPORTE CREADO POR IRIS, NOMBRE'!$C$12:$C$13</c:f>
+              <c:f>iris_tags!$C$12:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2289,7 +2289,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'REPORTE CREADO POR IRIS, NOMBRE'!$G$12:$G$13</c:f>
+              <c:f>iris_tags!$G$12:$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2303,7 +2303,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'REPORTE CREADO POR IRIS, NOMBRE'!$H$12:$H$13</c:f>
+              <c:f>iris_tags!$H$12:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2452,7 +2452,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'REPORTE CREADO POR IRIS, NOMBRE'!$G$12:$G$13</c:f>
+              <c:f>iris_tags!$G$12:$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2466,7 +2466,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'REPORTE CREADO POR IRIS, NOMBRE'!$I$12:$I$13</c:f>
+              <c:f>iris_tags!$I$12:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2844,7 +2844,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'REPORTE CREADO POR IRIS, NOMBRE'!$B$64:$B$65</c:f>
+              <c:f>iris_tags!$B$64:$B$65</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2858,7 +2858,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'REPORTE CREADO POR IRIS, NOMBRE'!$C$64:$C$65</c:f>
+              <c:f>iris_tags!$C$64:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3242,7 +3242,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'OBJETOS DE REFERENCIA'!$B$12:$B$13</c:f>
+              <c:f>object_refs!$B$12:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3256,7 +3256,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OBJETOS DE REFERENCIA'!$C$12:$C$13</c:f>
+              <c:f>object_refs!$C$12:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3644,7 +3644,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'OBJETOS DE REFERENCIA'!$G$12:$G$13</c:f>
+              <c:f>object_refs!$G$12:$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3658,7 +3658,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OBJETOS DE REFERENCIA'!$H$12:$H$13</c:f>
+              <c:f>object_refs!$H$12:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3807,7 +3807,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'OBJETOS DE REFERENCIA'!$G$12:$G$13</c:f>
+              <c:f>object_refs!$G$12:$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3821,7 +3821,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OBJETOS DE REFERENCIA'!$I$12:$I$13</c:f>
+              <c:f>object_refs!$I$12:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4218,7 +4218,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'OBJETOS DE REFERENCIA'!$B$64:$B$65</c:f>
+              <c:f>object_refs!$B$64:$B$65</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4232,7 +4232,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OBJETOS DE REFERENCIA'!$C$64:$C$65</c:f>
+              <c:f>object_refs!$C$64:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4506,7 +4506,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO CREACIÓN'!$F$12:$F$14</c:f>
+              <c:f>created!$F$12:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4524,7 +4524,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO CREACIÓN'!$H$12:$H$14</c:f>
+              <c:f>created!$H$12:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4581,7 +4581,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$F$12:$F$14</c15:sqref>
+                          <c15:sqref>created!$F$12:$F$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4605,7 +4605,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$G$12:$G$14</c15:sqref>
+                          <c15:sqref>created!$G$12:$G$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5003,7 +5003,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO CREACIÓN'!$B$65:$B$67</c:f>
+              <c:f>created!$B$65:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5021,7 +5021,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO CREACIÓN'!$D$65:$D$67</c:f>
+              <c:f>created!$D$65:$D$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5078,7 +5078,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$B$65:$B$67</c15:sqref>
+                          <c15:sqref>created!$B$65:$B$67</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5102,7 +5102,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$C$65:$C$67</c15:sqref>
+                          <c15:sqref>created!$C$65:$C$67</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5423,7 +5423,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO PUBLICACIÓN'!$B$12:$B$14</c:f>
+              <c:f>published!$B$12:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5441,7 +5441,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO PUBLICACIÓN'!$D$12:$D$14</c:f>
+              <c:f>published!$D$12:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5498,7 +5498,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO PUBLICACIÓN'!$B$12:$B$14</c15:sqref>
+                          <c15:sqref>published!$B$12:$B$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5522,7 +5522,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO PUBLICACIÓN'!$C$12:$C$14</c15:sqref>
+                          <c15:sqref>published!$C$12:$C$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5878,7 +5878,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO PUBLICACIÓN'!$F$12:$F$14</c:f>
+              <c:f>published!$F$12:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5896,7 +5896,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO PUBLICACIÓN'!$H$12:$H$14</c:f>
+              <c:f>published!$H$12:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5953,7 +5953,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO PUBLICACIÓN'!$F$12:$F$14</c15:sqref>
+                          <c15:sqref>published!$F$12:$F$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5977,7 +5977,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO PUBLICACIÓN'!$G$12:$G$14</c15:sqref>
+                          <c15:sqref>published!$G$12:$G$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6392,7 +6392,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO PUBLICACIÓN'!$B$65:$B$67</c:f>
+              <c:f>published!$B$65:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6410,7 +6410,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO PUBLICACIÓN'!$D$65:$D$67</c:f>
+              <c:f>published!$D$65:$D$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6467,7 +6467,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO PUBLICACIÓN'!$B$65:$B$67</c15:sqref>
+                          <c15:sqref>published!$B$65:$B$67</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6491,7 +6491,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO PUBLICACIÓN'!$C$65:$C$67</c15:sqref>
+                          <c15:sqref>published!$C$65:$C$67</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6812,7 +6812,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO MODIFICACIÓN'!$B$12:$B$14</c:f>
+              <c:f>modified!$B$12:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6830,7 +6830,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO MODIFICACIÓN'!$D$12:$D$14</c:f>
+              <c:f>modified!$D$12:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6887,7 +6887,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$B$12:$B$14</c15:sqref>
+                          <c15:sqref>modified!$B$12:$B$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6911,7 +6911,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$C$12:$C$14</c15:sqref>
+                          <c15:sqref>modified!$C$12:$C$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7269,7 +7269,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO MODIFICACIÓN'!$F$12:$F$14</c:f>
+              <c:f>modified!$F$12:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7287,7 +7287,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO MODIFICACIÓN'!$H$12:$H$14</c:f>
+              <c:f>modified!$H$12:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7344,7 +7344,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$F$12:$F$14</c15:sqref>
+                          <c15:sqref>modified!$F$12:$F$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7368,7 +7368,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$G$12:$G$14</c15:sqref>
+                          <c15:sqref>modified!$G$12:$G$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7778,7 +7778,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO MODIFICACIÓN'!$B$65:$B$67</c:f>
+              <c:f>modified!$B$65:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7796,7 +7796,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO MODIFICACIÓN'!$D$65:$D$67</c:f>
+              <c:f>modified!$D$65:$D$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7853,7 +7853,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$B$65:$B$67</c15:sqref>
+                          <c15:sqref>modified!$B$65:$B$67</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7877,7 +7877,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$C$65:$C$67</c15:sqref>
+                          <c15:sqref>modified!$C$65:$C$67</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -17758,7 +17758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FCE0DB-2C87-4833-932D-B89C492D2F7B}">
   <dimension ref="B2:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A86" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
@@ -18845,7 +18845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0AA32B-D62E-4860-90D1-77E84240B4E1}">
   <dimension ref="B2:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
